--- a/Takarmany_kalkulator.xlsx
+++ b/Takarmany_kalkulator.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16146CB6-F139-47D6-AADB-9394B89DF1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41C5F0-6730-438E-9C41-A13371A3DE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adatbázis" sheetId="1" r:id="rId1"/>
+    <sheet name="adatbazis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
